--- a/documentacao/JOB SEA-Projeto/Gerenciamento de Projeto/JOB SEA - Planejamento e Controle do Projeto.xlsx
+++ b/documentacao/JOB SEA-Projeto/Gerenciamento de Projeto/JOB SEA - Planejamento e Controle do Projeto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluisio\Desktop\JOB SEA- Iniciação doProjeto\JOB SEA-Projeto\Gerenciamento de Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B726C13F-8225-4A3F-9303-BB2B3B5A2E0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C1B019-1DC4-451C-8390-D632B8E4A541}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="797" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="797" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="10" r:id="rId1"/>
@@ -1901,7 +1901,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="265">
   <si>
     <t>Iniciação</t>
   </si>
@@ -2564,9 +2564,6 @@
     <t>Ajuste base histórica (margem de erro da estimativa)</t>
   </si>
   <si>
-    <t>Modelar UC1</t>
-  </si>
-  <si>
     <t>Definir escopo</t>
   </si>
   <si>
@@ -2604,18 +2601,6 @@
   </si>
   <si>
     <t>Implementar e testar a arquitetura</t>
-  </si>
-  <si>
-    <t>Implementar e testar unitariamente U02</t>
-  </si>
-  <si>
-    <t>Executar Testes UC02</t>
-  </si>
-  <si>
-    <t>Projetar Testes UC02</t>
-  </si>
-  <si>
-    <t>Modelar UC2</t>
   </si>
   <si>
     <t>Projetar Testes de Sistema</t>
@@ -2676,21 +2661,9 @@
     <t>Preparar Ambiente de Desenvolvimento</t>
   </si>
   <si>
-    <t>Implementar e testar unitariamente U01</t>
-  </si>
-  <si>
     <t>Modelar UC3</t>
   </si>
   <si>
-    <t>Implementar e testar unitariamente U03</t>
-  </si>
-  <si>
-    <t>Projetar Testes UC03</t>
-  </si>
-  <si>
-    <t>Executar Testes UC03</t>
-  </si>
-  <si>
     <t>Jornada de trabalho semanal por desenvolvedor</t>
   </si>
   <si>
@@ -2721,12 +2694,6 @@
     <t>Preço</t>
   </si>
   <si>
-    <t>Projetar Testes UC01</t>
-  </si>
-  <si>
-    <t>Executar Testes UC01</t>
-  </si>
-  <si>
     <t>A priorização é importante para saber o que entregar primeiro ou desenvolver primeiro. O Owner ou o próprio cliente são importantes nessa decisão. Isso vai ajudar a planejar os Sprints.</t>
   </si>
   <si>
@@ -2757,12 +2724,6 @@
     <t xml:space="preserve">aluisio.santos@aluno.ifsp.edu.br </t>
   </si>
   <si>
-    <t>Edson Murakami</t>
-  </si>
-  <si>
-    <t>murakami@ifsp.edu.br</t>
-  </si>
-  <si>
     <t>Iago Fernandes</t>
   </si>
   <si>
@@ -2808,10 +2769,19 @@
     <t xml:space="preserve">Implementar e testar unitariamente </t>
   </si>
   <si>
-    <t>Especificar -Manter Cliente</t>
-  </si>
-  <si>
     <t>Especificar -Manter Projetos</t>
+  </si>
+  <si>
+    <t>Modelar Caso de Uso Manter Usuário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementar e testar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projetar Testes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Executar Testes </t>
   </si>
 </sst>
 </file>
@@ -3969,6 +3939,10 @@
     <xf numFmtId="0" fontId="42" fillId="4" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4051,54 +4025,54 @@
     <xf numFmtId="0" fontId="28" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4146,10 +4120,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6548,7 +6518,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6559,18 +6529,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
     </row>
     <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
-        <v>253</v>
-      </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
+      <c r="A2" s="153" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
@@ -6588,10 +6558,10 @@
         <v>44</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C4" s="150" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -6599,10 +6569,10 @@
         <v>45</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C5" s="150" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -6610,10 +6580,10 @@
         <v>46</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C6" s="150" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -6621,10 +6591,10 @@
         <v>46</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="C7" s="150" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -6695,10 +6665,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6717,92 +6687,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="164" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="F1" s="156" t="s">
-        <v>219</v>
-      </c>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="F1" s="157" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
     </row>
     <row r="2" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="158" t="s">
-        <v>226</v>
-      </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="F2" s="160" t="s">
-        <v>246</v>
-      </c>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
+      <c r="A2" s="159" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="F2" s="161" t="s">
+        <v>235</v>
+      </c>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
     </row>
     <row r="3" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A3" s="138" t="s">
         <v>138</v>
       </c>
       <c r="B3" s="138" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="138" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="138" t="s">
-        <v>201</v>
-      </c>
       <c r="D3" s="138" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F3" s="138" t="s">
         <v>138</v>
       </c>
       <c r="G3" s="139" t="s">
-        <v>217</v>
-      </c>
-      <c r="H3" s="162" t="s">
-        <v>219</v>
-      </c>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
+        <v>212</v>
+      </c>
+      <c r="H3" s="163" t="s">
+        <v>214</v>
+      </c>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
     </row>
     <row r="4" spans="1:12" ht="24" x14ac:dyDescent="0.2">
-      <c r="A4" s="153" t="s">
+      <c r="A4" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="154"/>
-      <c r="C4" s="155"/>
+      <c r="B4" s="155"/>
+      <c r="C4" s="156"/>
       <c r="D4" s="131" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="129" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G4" s="129" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H4" s="131" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I4" s="131" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="J4" s="131" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="K4" s="136" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L4" s="131" t="s">
         <v>25</v>
@@ -6816,7 +6786,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="140" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D5" s="133">
         <v>5</v>
@@ -6825,7 +6795,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="140" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="H5" s="130">
         <v>10</v>
@@ -6852,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="140" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D6" s="133">
         <v>2</v>
@@ -6861,7 +6831,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="140" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="H6" s="130">
         <v>5</v>
@@ -6888,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="140" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D7" s="133">
         <v>5</v>
@@ -6897,7 +6867,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="140" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="H7" s="130">
         <v>5</v>
@@ -6924,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="140" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D8" s="133">
         <v>10</v>
@@ -6948,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="140" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D9" s="133">
         <v>3</v>
@@ -6972,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D10" s="133">
         <v>4</v>
@@ -6989,11 +6959,11 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="153" t="s">
+      <c r="A11" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="154"/>
-      <c r="C11" s="155"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="156"/>
       <c r="D11" s="131">
         <f>SUM(D5:D10)</f>
         <v>29</v>
@@ -7017,7 +6987,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="140" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D12" s="133">
         <v>3</v>
@@ -7041,7 +7011,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="140" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D13" s="133">
         <v>6</v>
@@ -7065,7 +7035,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="125" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D14" s="133">
         <v>5</v>
@@ -7089,7 +7059,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="141" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D15" s="133">
         <v>5</v>
@@ -7112,10 +7082,12 @@
       <c r="B16" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="209" t="s">
-        <v>271</v>
-      </c>
-      <c r="D16" s="133"/>
+      <c r="C16" s="151" t="s">
+        <v>258</v>
+      </c>
+      <c r="D16" s="133">
+        <v>2</v>
+      </c>
       <c r="F16" s="128"/>
       <c r="G16" s="140"/>
       <c r="H16" s="130"/>
@@ -7134,10 +7106,12 @@
       <c r="B17" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="209" t="s">
-        <v>272</v>
-      </c>
-      <c r="D17" s="133"/>
+      <c r="C17" s="151" t="s">
+        <v>259</v>
+      </c>
+      <c r="D17" s="133">
+        <v>10</v>
+      </c>
       <c r="F17" s="128"/>
       <c r="G17" s="140"/>
       <c r="H17" s="130"/>
@@ -7157,10 +7131,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="125" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D18" s="133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F18" s="128"/>
       <c r="G18" s="140"/>
@@ -7181,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="125" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D19" s="133">
         <v>10</v>
@@ -7205,7 +7179,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="125" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D20" s="133">
         <v>3</v>
@@ -7226,7 +7200,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="125" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D21" s="133">
         <v>4</v>
@@ -7240,14 +7214,14 @@
       <c r="L21" s="124"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="153" t="s">
+      <c r="A22" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="154"/>
-      <c r="C22" s="155"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="156"/>
       <c r="D22" s="131">
         <f>SUM(D12:D21)</f>
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F22"/>
       <c r="G22"/>
@@ -7265,7 +7239,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="140" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D23" s="133">
         <v>3</v>
@@ -7286,7 +7260,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="141" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D24" s="133">
         <v>5</v>
@@ -7300,9 +7274,11 @@
         <v>2</v>
       </c>
       <c r="C25" s="142" t="s">
-        <v>192</v>
-      </c>
-      <c r="D25" s="133"/>
+        <v>261</v>
+      </c>
+      <c r="D25" s="133">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="126">
@@ -7312,9 +7288,11 @@
         <v>2</v>
       </c>
       <c r="C26" s="142" t="s">
-        <v>229</v>
-      </c>
-      <c r="D26" s="133"/>
+        <v>262</v>
+      </c>
+      <c r="D26" s="133">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="126">
@@ -7324,9 +7302,11 @@
         <v>2</v>
       </c>
       <c r="C27" s="142" t="s">
-        <v>244</v>
-      </c>
-      <c r="D27" s="133"/>
+        <v>263</v>
+      </c>
+      <c r="D27" s="133">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="126">
@@ -7336,19 +7316,21 @@
         <v>2</v>
       </c>
       <c r="C28" s="142" t="s">
-        <v>245</v>
-      </c>
-      <c r="D28" s="133"/>
+        <v>264</v>
+      </c>
+      <c r="D28" s="133">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="126">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B29" s="123" t="s">
         <v>2</v>
       </c>
       <c r="C29" s="141" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="D29" s="133">
         <v>6</v>
@@ -7356,205 +7338,221 @@
     </row>
     <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="126">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B30" s="123" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="142" t="s">
-        <v>209</v>
-      </c>
-      <c r="D30" s="133"/>
+        <v>224</v>
+      </c>
+      <c r="D30" s="133">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="126">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B31" s="123" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="142" t="s">
-        <v>206</v>
-      </c>
-      <c r="D31" s="133"/>
+        <v>259</v>
+      </c>
+      <c r="D31" s="133">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="126">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B32" s="123" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="142" t="s">
-        <v>208</v>
-      </c>
-      <c r="D32" s="133"/>
+        <v>263</v>
+      </c>
+      <c r="D32" s="133">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="126">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B33" s="123" t="s">
         <v>2</v>
       </c>
       <c r="C33" s="142" t="s">
-        <v>207</v>
-      </c>
-      <c r="D33" s="133"/>
+        <v>264</v>
+      </c>
+      <c r="D33" s="133">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="126">
-        <v>28</v>
-      </c>
-      <c r="B34" s="123" t="s">
+      <c r="A34" s="126"/>
+      <c r="B34" s="123"/>
+      <c r="C34" s="141"/>
+      <c r="D34" s="133"/>
+    </row>
+    <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="126"/>
+      <c r="B35" s="123"/>
+      <c r="C35" s="142"/>
+      <c r="D35" s="133"/>
+    </row>
+    <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="126"/>
+      <c r="B36" s="123"/>
+      <c r="C36" s="142"/>
+      <c r="D36" s="133"/>
+    </row>
+    <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="126"/>
+      <c r="B37" s="123"/>
+      <c r="C37" s="142"/>
+      <c r="D37" s="133"/>
+    </row>
+    <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="126"/>
+      <c r="B38" s="123"/>
+      <c r="C38" s="142"/>
+      <c r="D38" s="133"/>
+    </row>
+    <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="126">
+        <v>34</v>
+      </c>
+      <c r="B39" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="141" t="s">
-        <v>274</v>
-      </c>
-      <c r="D34" s="133">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="126">
-        <v>29</v>
-      </c>
-      <c r="B35" s="123" t="s">
+      <c r="C39" s="125" t="s">
+        <v>198</v>
+      </c>
+      <c r="D39" s="133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="126">
+        <v>35</v>
+      </c>
+      <c r="B40" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="142" t="s">
-        <v>230</v>
-      </c>
-      <c r="D35" s="133"/>
-    </row>
-    <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="126">
-        <v>30</v>
-      </c>
-      <c r="B36" s="123" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="142" t="s">
-        <v>231</v>
-      </c>
-      <c r="D36" s="133"/>
-    </row>
-    <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="126">
-        <v>31</v>
-      </c>
-      <c r="B37" s="123" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="142" t="s">
-        <v>232</v>
-      </c>
-      <c r="D37" s="133"/>
-    </row>
-    <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="126">
-        <v>32</v>
-      </c>
-      <c r="B38" s="123" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="142" t="s">
-        <v>233</v>
-      </c>
-      <c r="D38" s="133"/>
-    </row>
-    <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="126"/>
-      <c r="B39" s="123"/>
-      <c r="C39" s="141"/>
-      <c r="D39" s="133"/>
-    </row>
-    <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="126"/>
-      <c r="B40" s="123"/>
-      <c r="C40" s="142"/>
-      <c r="D40" s="133"/>
-    </row>
-    <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="126"/>
-      <c r="B41" s="123"/>
-      <c r="C41" s="142"/>
-      <c r="D41" s="133"/>
+      <c r="C40" s="125" t="s">
+        <v>203</v>
+      </c>
+      <c r="D40" s="133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="154" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="155"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="131">
+        <f>SUM(D23:D40)</f>
+        <v>35</v>
+      </c>
     </row>
     <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="126"/>
-      <c r="B42" s="123"/>
-      <c r="C42" s="142"/>
-      <c r="D42" s="133"/>
+      <c r="A42" s="126">
+        <v>36</v>
+      </c>
+      <c r="B42" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="140" t="s">
+        <v>196</v>
+      </c>
+      <c r="D42" s="133">
+        <v>3</v>
+      </c>
     </row>
     <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="126"/>
-      <c r="B43" s="123"/>
-      <c r="C43" s="142"/>
-      <c r="D43" s="133"/>
+      <c r="A43" s="126">
+        <v>37</v>
+      </c>
+      <c r="B43" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="125" t="s">
+        <v>205</v>
+      </c>
+      <c r="D43" s="133">
+        <v>5</v>
+      </c>
     </row>
     <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="126">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B44" s="123" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44" s="125" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D44" s="133">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="126">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B45" s="123" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45" s="125" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D45" s="133">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="153" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="126">
+        <v>40</v>
+      </c>
+      <c r="B46" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="154"/>
-      <c r="C46" s="155"/>
-      <c r="D46" s="131">
-        <f>SUM(D23:D45)</f>
-        <v>27</v>
+      <c r="C46" s="140" t="s">
+        <v>207</v>
+      </c>
+      <c r="D46" s="133">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="126">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B47" s="123" t="s">
         <v>3</v>
       </c>
       <c r="C47" s="140" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="D47" s="133">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="126">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B48" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="125" t="s">
+      <c r="C48" s="140" t="s">
         <v>210</v>
       </c>
       <c r="D48" s="133">
@@ -7563,121 +7561,51 @@
     </row>
     <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="126">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B49" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="125" t="s">
-        <v>211</v>
+      <c r="C49" s="140" t="s">
+        <v>209</v>
       </c>
       <c r="D49" s="133">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="126">
-        <v>39</v>
-      </c>
-      <c r="B50" s="123" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="137" t="s">
         <v>3</v>
       </c>
       <c r="C50" s="125" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="D50" s="133">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="126">
-        <v>40</v>
-      </c>
-      <c r="B51" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="140" t="s">
-        <v>212</v>
-      </c>
-      <c r="D51" s="133">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="126">
-        <v>41</v>
-      </c>
-      <c r="B52" s="123" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="140" t="s">
-        <v>213</v>
-      </c>
-      <c r="D52" s="133">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="126">
-        <v>42</v>
-      </c>
-      <c r="B53" s="123" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="140" t="s">
-        <v>215</v>
-      </c>
-      <c r="D53" s="133">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="126">
-        <v>43</v>
-      </c>
-      <c r="B54" s="123" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="140" t="s">
-        <v>214</v>
-      </c>
-      <c r="D54" s="133">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="126">
-        <v>44</v>
-      </c>
-      <c r="B55" s="137" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="125" t="s">
-        <v>199</v>
-      </c>
-      <c r="D55" s="133">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="12" x14ac:dyDescent="0.2">
-      <c r="A56" s="153"/>
-      <c r="B56" s="154"/>
-      <c r="C56" s="155"/>
-      <c r="D56" s="131">
-        <f>SUM(D47:D55)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="D57" s="143">
-        <f>SUM(D11,D22,D46,D56)</f>
-        <v>139</v>
+    </row>
+    <row r="51" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+      <c r="A51" s="154"/>
+      <c r="B51" s="155"/>
+      <c r="C51" s="156"/>
+      <c r="D51" s="131">
+        <f>SUM(D42:D50)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D52" s="143">
+        <f>SUM(D11,D22,D41,D51)</f>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A51:C51"/>
     <mergeCell ref="F1:L1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:L2"/>
@@ -7698,8 +7626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7710,27 +7638,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
     </row>
     <row r="2" spans="1:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="167" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
     </row>
     <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B4" s="147">
-        <f>'Backlog Produto'!$D$57</f>
-        <v>139</v>
+        <f>'Backlog Produto'!$D$52</f>
+        <v>143</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>13</v>
@@ -7744,12 +7672,12 @@
         <v>0.3</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B6" s="15">
         <v>3</v>
@@ -7758,10 +7686,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B7" s="15">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>13</v>
@@ -7769,11 +7697,11 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B8" s="145">
         <f>B6*B7*2</f>
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>13</v>
@@ -7781,23 +7709,23 @@
     </row>
     <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B9" s="144">
         <f>B11/2</f>
-        <v>10.038888888888888</v>
+        <v>3.8729166666666668</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="56" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B10" s="146">
         <f>B4+(B4*B5)</f>
-        <v>180.7</v>
+        <v>185.9</v>
       </c>
       <c r="C10" s="56" t="s">
         <v>13</v>
@@ -7805,11 +7733,11 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B11" s="145">
         <f>B10/B8*2</f>
-        <v>20.077777777777776</v>
+        <v>7.7458333333333336</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>28</v>
@@ -7817,22 +7745,22 @@
     </row>
     <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B12" s="144">
         <f>B11/4</f>
-        <v>5.0194444444444439</v>
+        <v>1.9364583333333334</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="166" t="s">
+      <c r="A14" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="166"/>
-      <c r="C14" s="166"/>
+      <c r="B14" s="167"/>
+      <c r="C14" s="167"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
@@ -7849,7 +7777,7 @@
       </c>
       <c r="B16" s="5">
         <f>B10*B15</f>
-        <v>3614</v>
+        <v>3718</v>
       </c>
       <c r="C16" s="2"/>
     </row>
@@ -7868,17 +7796,17 @@
       </c>
       <c r="B18" s="6">
         <f>B16*B17</f>
-        <v>361.40000000000003</v>
+        <v>371.8</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B19" s="148">
         <f>B16+B18</f>
-        <v>3975.4</v>
+        <v>4089.8</v>
       </c>
       <c r="C19" s="2"/>
     </row>
@@ -7887,7 +7815,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="26">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C20" s="2"/>
     </row>
@@ -7897,17 +7825,17 @@
       </c>
       <c r="B21" s="7">
         <f>B19*B20</f>
-        <v>1192.6199999999999</v>
+        <v>817.96</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B22" s="148">
         <f>B19+B21</f>
-        <v>5168.0200000000004</v>
+        <v>4907.76</v>
       </c>
       <c r="C22" s="2"/>
     </row>
@@ -7927,8 +7855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -7945,62 +7873,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="168" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="172"/>
+      <c r="B2" s="173"/>
       <c r="C2" s="82" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D2" s="169" t="s">
+      <c r="D2" s="170" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="169"/>
+      <c r="E2" s="170"/>
       <c r="F2" s="83" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G2" s="170" t="s">
+      <c r="G2" s="171" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="173"/>
       <c r="K2" s="82">
         <f>Planejamento!$B$10</f>
-        <v>180.7</v>
+        <v>185.9</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="84"/>
       <c r="B3" s="85"/>
-      <c r="C3" s="173" t="s">
+      <c r="C3" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
       <c r="F3" s="86"/>
-      <c r="G3" s="174" t="s">
+      <c r="G3" s="175" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="175"/>
-      <c r="I3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="177"/>
       <c r="J3" s="87"/>
       <c r="K3" s="88"/>
     </row>
@@ -8044,7 +7972,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="92" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C5" s="93">
         <v>44146</v>
@@ -8086,9 +8014,7 @@
         <v>44160</v>
       </c>
       <c r="D6" s="93"/>
-      <c r="E6" s="98">
-        <v>39</v>
-      </c>
+      <c r="E6" s="98"/>
       <c r="F6" s="95" t="s">
         <v>54</v>
       </c>
@@ -8107,9 +8033,7 @@
       </c>
       <c r="C7" s="93"/>
       <c r="D7" s="93"/>
-      <c r="E7" s="98">
-        <v>27</v>
-      </c>
+      <c r="E7" s="98"/>
       <c r="F7" s="95" t="s">
         <v>54</v>
       </c>
@@ -8128,9 +8052,7 @@
       </c>
       <c r="C8" s="93"/>
       <c r="D8" s="93"/>
-      <c r="E8" s="98">
-        <v>44</v>
-      </c>
+      <c r="E8" s="98"/>
       <c r="F8" s="95"/>
       <c r="G8" s="93"/>
       <c r="H8" s="93"/>
@@ -8235,7 +8157,7 @@
       <c r="D15" s="31"/>
       <c r="E15" s="49">
         <f>SUM(E5:E14)</f>
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="48"/>
@@ -9144,19 +9066,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="57" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="168" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
     </row>
     <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -9333,10 +9255,10 @@
       <c r="A33" s="65"/>
       <c r="B33" s="65"/>
       <c r="C33" s="65"/>
-      <c r="D33" s="182" t="s">
+      <c r="D33" s="178" t="s">
         <v>113</v>
       </c>
-      <c r="E33" s="183"/>
+      <c r="E33" s="179"/>
       <c r="F33" s="65"/>
       <c r="G33" s="65"/>
       <c r="H33" s="65"/>
@@ -9448,137 +9370,137 @@
     </row>
     <row r="40" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:11" s="57" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="189" t="s">
+      <c r="A41" s="186" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="189"/>
-      <c r="C41" s="189"/>
-      <c r="D41" s="189"/>
-      <c r="E41" s="189"/>
-      <c r="F41" s="189"/>
-      <c r="G41" s="189"/>
-      <c r="H41" s="189"/>
-      <c r="I41" s="189"/>
-      <c r="J41" s="189"/>
-      <c r="K41" s="189"/>
+      <c r="B41" s="186"/>
+      <c r="C41" s="186"/>
+      <c r="D41" s="186"/>
+      <c r="E41" s="186"/>
+      <c r="F41" s="186"/>
+      <c r="G41" s="186"/>
+      <c r="H41" s="186"/>
+      <c r="I41" s="186"/>
+      <c r="J41" s="186"/>
+      <c r="K41" s="186"/>
     </row>
     <row r="42" spans="1:11" s="57" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="190" t="s">
+      <c r="A42" s="187" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="190"/>
-      <c r="C42" s="190"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="190"/>
-      <c r="I42" s="190"/>
-      <c r="J42" s="190"/>
-      <c r="K42" s="190"/>
+      <c r="B42" s="187"/>
+      <c r="C42" s="187"/>
+      <c r="D42" s="187"/>
+      <c r="E42" s="187"/>
+      <c r="F42" s="187"/>
+      <c r="G42" s="187"/>
+      <c r="H42" s="187"/>
+      <c r="I42" s="187"/>
+      <c r="J42" s="187"/>
+      <c r="K42" s="187"/>
     </row>
     <row r="43" spans="1:11" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="191" t="s">
+      <c r="A43" s="188" t="s">
         <v>135</v>
       </c>
-      <c r="B43" s="191"/>
-      <c r="C43" s="191"/>
-      <c r="D43" s="191"/>
-      <c r="E43" s="191"/>
-      <c r="F43" s="191"/>
-      <c r="G43" s="191"/>
-      <c r="H43" s="191"/>
-      <c r="I43" s="191"/>
-      <c r="J43" s="191"/>
-      <c r="K43" s="191"/>
+      <c r="B43" s="188"/>
+      <c r="C43" s="188"/>
+      <c r="D43" s="188"/>
+      <c r="E43" s="188"/>
+      <c r="F43" s="188"/>
+      <c r="G43" s="188"/>
+      <c r="H43" s="188"/>
+      <c r="I43" s="188"/>
+      <c r="J43" s="188"/>
+      <c r="K43" s="188"/>
     </row>
     <row r="44" spans="1:11" s="57" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="192" t="s">
+      <c r="A44" s="189" t="s">
         <v>122</v>
       </c>
-      <c r="B44" s="192"/>
-      <c r="C44" s="192"/>
-      <c r="D44" s="192"/>
-      <c r="E44" s="192"/>
-      <c r="F44" s="192"/>
-      <c r="G44" s="192"/>
-      <c r="H44" s="192"/>
-      <c r="I44" s="192"/>
-      <c r="J44" s="192"/>
-      <c r="K44" s="192"/>
+      <c r="B44" s="189"/>
+      <c r="C44" s="189"/>
+      <c r="D44" s="189"/>
+      <c r="E44" s="189"/>
+      <c r="F44" s="189"/>
+      <c r="G44" s="189"/>
+      <c r="H44" s="189"/>
+      <c r="I44" s="189"/>
+      <c r="J44" s="189"/>
+      <c r="K44" s="189"/>
     </row>
     <row r="45" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="184" t="s">
+      <c r="A46" s="180" t="s">
         <v>123</v>
       </c>
-      <c r="B46" s="185"/>
-      <c r="C46" s="185"/>
-      <c r="D46" s="185"/>
-      <c r="E46" s="185"/>
-      <c r="F46" s="185"/>
-      <c r="G46" s="185"/>
-      <c r="H46" s="185"/>
-      <c r="I46" s="185"/>
-      <c r="J46" s="185"/>
-      <c r="K46" s="185"/>
+      <c r="B46" s="181"/>
+      <c r="C46" s="181"/>
+      <c r="D46" s="181"/>
+      <c r="E46" s="181"/>
+      <c r="F46" s="181"/>
+      <c r="G46" s="181"/>
+      <c r="H46" s="181"/>
+      <c r="I46" s="181"/>
+      <c r="J46" s="181"/>
+      <c r="K46" s="181"/>
     </row>
     <row r="47" spans="1:11" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="81" t="s">
         <v>124</v>
       </c>
       <c r="B47" s="80"/>
-      <c r="C47" s="186" t="s">
+      <c r="C47" s="182" t="s">
         <v>125</v>
       </c>
-      <c r="D47" s="186"/>
-      <c r="E47" s="186"/>
-      <c r="F47" s="186"/>
-      <c r="G47" s="186"/>
-      <c r="H47" s="186"/>
-      <c r="I47" s="186"/>
-      <c r="J47" s="186"/>
-      <c r="K47" s="186"/>
+      <c r="D47" s="182"/>
+      <c r="E47" s="182"/>
+      <c r="F47" s="182"/>
+      <c r="G47" s="182"/>
+      <c r="H47" s="182"/>
+      <c r="I47" s="182"/>
+      <c r="J47" s="182"/>
+      <c r="K47" s="182"/>
     </row>
     <row r="48" spans="1:11" s="72" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="179"/>
-      <c r="B48" s="179" t="s">
+      <c r="A48" s="185"/>
+      <c r="B48" s="185" t="s">
         <v>134</v>
       </c>
-      <c r="C48" s="179" t="s">
+      <c r="C48" s="185" t="s">
         <v>126</v>
       </c>
-      <c r="D48" s="179" t="s">
+      <c r="D48" s="185" t="s">
         <v>127</v>
       </c>
-      <c r="E48" s="179" t="s">
+      <c r="E48" s="185" t="s">
         <v>98</v>
       </c>
-      <c r="F48" s="179" t="s">
+      <c r="F48" s="185" t="s">
         <v>128</v>
       </c>
-      <c r="G48" s="179" t="s">
+      <c r="G48" s="185" t="s">
         <v>102</v>
       </c>
-      <c r="H48" s="180" t="s">
+      <c r="H48" s="192" t="s">
         <v>129</v>
       </c>
-      <c r="I48" s="181"/>
-      <c r="J48" s="181"/>
-      <c r="K48" s="181"/>
+      <c r="I48" s="193"/>
+      <c r="J48" s="193"/>
+      <c r="K48" s="193"/>
     </row>
     <row r="49" spans="1:11" s="72" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="179"/>
-      <c r="B49" s="179"/>
-      <c r="C49" s="179"/>
-      <c r="D49" s="179"/>
-      <c r="E49" s="179"/>
-      <c r="F49" s="179"/>
-      <c r="G49" s="179"/>
-      <c r="H49" s="187" t="s">
+      <c r="A49" s="185"/>
+      <c r="B49" s="185"/>
+      <c r="C49" s="185"/>
+      <c r="D49" s="185"/>
+      <c r="E49" s="185"/>
+      <c r="F49" s="185"/>
+      <c r="G49" s="185"/>
+      <c r="H49" s="183" t="s">
         <v>130</v>
       </c>
-      <c r="I49" s="188"/>
+      <c r="I49" s="184"/>
       <c r="J49" s="73" t="s">
         <v>131</v>
       </c>
@@ -9609,10 +9531,10 @@
       <c r="G50" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="H50" s="177"/>
-      <c r="I50" s="178"/>
+      <c r="H50" s="190"/>
+      <c r="I50" s="191"/>
       <c r="J50" s="79" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K50" s="79" t="s">
         <v>137</v>
@@ -9623,7 +9545,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="101" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C51" s="74">
         <v>44146</v>
@@ -9644,7 +9566,7 @@
       <c r="H51" s="77"/>
       <c r="I51" s="78"/>
       <c r="J51" s="79" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="K51" s="79" t="s">
         <v>137</v>
@@ -9773,8 +9695,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="G59" s="75"/>
-      <c r="H59" s="177"/>
-      <c r="I59" s="178"/>
+      <c r="H59" s="190"/>
+      <c r="I59" s="191"/>
       <c r="J59" s="79"/>
       <c r="K59" s="79"/>
     </row>
@@ -9789,13 +9711,22 @@
         <v>#VALUE!</v>
       </c>
       <c r="G60" s="75"/>
-      <c r="H60" s="177"/>
-      <c r="I60" s="178"/>
+      <c r="H60" s="190"/>
+      <c r="I60" s="191"/>
       <c r="J60" s="79"/>
       <c r="K60" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:K48"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="A46:K46"/>
@@ -9807,15 +9738,6 @@
     <mergeCell ref="A42:K42"/>
     <mergeCell ref="A43:K43"/>
     <mergeCell ref="A44:K44"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:K48"/>
   </mergeCells>
   <conditionalFormatting sqref="F50:F60">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -9866,33 +9788,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="193" t="s">
-        <v>249</v>
-      </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
+      <c r="A1" s="194" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
     </row>
     <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="84"/>
       <c r="B2" s="85"/>
-      <c r="C2" s="173" t="s">
+      <c r="C2" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="173"/>
+      <c r="D2" s="174"/>
     </row>
     <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="89" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B3" s="89" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C3" s="89" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D3" s="89" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -10066,7 +9988,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="122" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="15">
         <v>5</v>
@@ -10098,7 +10020,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="122" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3" s="15">
         <v>2</v>
@@ -10120,7 +10042,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="122" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B4" s="15">
         <v>5</v>
@@ -10142,7 +10064,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="122" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B5" s="15">
         <v>10</v>
@@ -10174,7 +10096,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="122" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B6" s="15">
         <v>3</v>
@@ -10196,7 +10118,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="122" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B7" s="15">
         <v>4</v>
@@ -10218,7 +10140,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="B8" s="15">
         <v>12</v>
@@ -10481,7 +10403,7 @@
       </c>
       <c r="B16" s="45">
         <f>Planejamento!B8</f>
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C16" s="45" t="s">
         <v>12</v>
@@ -10530,116 +10452,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="57" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="202" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="201"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
     </row>
     <row r="2" spans="1:23" s="103" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="203" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="202"/>
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="203"/>
     </row>
     <row r="3" spans="1:23" s="103" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="203" t="s">
+      <c r="A3" s="204" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203"/>
-      <c r="J3" s="203"/>
-      <c r="K3" s="203"/>
-      <c r="L3" s="203"/>
-      <c r="M3" s="203"/>
-      <c r="N3" s="203"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
     </row>
     <row r="4" spans="1:23" s="103" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="204" t="s">
+      <c r="A4" s="205" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="204"/>
-      <c r="C4" s="204"/>
-      <c r="D4" s="204"/>
-      <c r="E4" s="204"/>
-      <c r="F4" s="204"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="204"/>
-      <c r="M4" s="204"/>
-      <c r="N4" s="204"/>
+      <c r="B4" s="205"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="205"/>
+      <c r="K4" s="205"/>
+      <c r="L4" s="205"/>
+      <c r="M4" s="205"/>
+      <c r="N4" s="205"/>
     </row>
     <row r="5" spans="1:23" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="205" t="s">
+      <c r="A5" s="206" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="205"/>
-      <c r="C5" s="205"/>
-      <c r="D5" s="205"/>
-      <c r="E5" s="205"/>
-      <c r="F5" s="205"/>
-      <c r="G5" s="205"/>
-      <c r="H5" s="205"/>
-      <c r="I5" s="205"/>
-      <c r="J5" s="205"/>
-      <c r="K5" s="205"/>
-      <c r="L5" s="205"/>
-      <c r="M5" s="205"/>
-      <c r="N5" s="205"/>
+      <c r="B5" s="206"/>
+      <c r="C5" s="206"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="206"/>
+      <c r="I5" s="206"/>
+      <c r="J5" s="206"/>
+      <c r="K5" s="206"/>
+      <c r="L5" s="206"/>
+      <c r="M5" s="206"/>
+      <c r="N5" s="206"/>
     </row>
     <row r="6" spans="1:23" s="22" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A7" s="199" t="s">
+      <c r="A7" s="200" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="200"/>
-      <c r="D7" s="199" t="s">
+      <c r="B7" s="201"/>
+      <c r="D7" s="200" t="s">
         <v>174</v>
       </c>
-      <c r="E7" s="200"/>
-      <c r="G7" s="195" t="s">
+      <c r="E7" s="201"/>
+      <c r="G7" s="196" t="s">
         <v>141</v>
       </c>
-      <c r="H7" s="195"/>
-      <c r="I7" s="195"/>
-      <c r="J7" s="195"/>
-      <c r="K7" s="195"/>
-      <c r="M7" s="199" t="s">
+      <c r="H7" s="196"/>
+      <c r="I7" s="196"/>
+      <c r="J7" s="196"/>
+      <c r="K7" s="196"/>
+      <c r="M7" s="200" t="s">
         <v>175</v>
       </c>
-      <c r="N7" s="200"/>
+      <c r="N7" s="201"/>
     </row>
     <row r="8" spans="1:23" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="104" t="s">
@@ -10739,13 +10661,13 @@
       <c r="B11" s="106"/>
       <c r="D11" s="102"/>
       <c r="E11" s="106"/>
-      <c r="G11" s="195" t="s">
+      <c r="G11" s="196" t="s">
         <v>146</v>
       </c>
-      <c r="H11" s="195"/>
-      <c r="I11" s="195"/>
-      <c r="J11" s="195"/>
-      <c r="K11" s="195"/>
+      <c r="H11" s="196"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="196"/>
+      <c r="K11" s="196"/>
       <c r="M11" s="108" t="s">
         <v>161</v>
       </c>
@@ -10848,12 +10770,12 @@
       <c r="B16" s="106"/>
       <c r="D16" s="102"/>
       <c r="E16" s="106"/>
-      <c r="G16" s="196" t="s">
+      <c r="G16" s="197" t="s">
         <v>150</v>
       </c>
-      <c r="H16" s="197"/>
-      <c r="I16" s="197"/>
-      <c r="J16" s="198"/>
+      <c r="H16" s="198"/>
+      <c r="I16" s="198"/>
+      <c r="J16" s="199"/>
       <c r="K16" s="107">
         <f>SUM(K9,K10,K13,K14,K15)</f>
         <v>14</v>
@@ -11015,42 +10937,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="202" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="201"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
     </row>
     <row r="2" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="207" t="s">
+      <c r="A3" s="208" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="207"/>
-      <c r="C3" s="207"/>
-      <c r="E3" s="194" t="s">
+      <c r="B3" s="208"/>
+      <c r="C3" s="208"/>
+      <c r="E3" s="195" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="194"/>
-      <c r="G3" s="194"/>
-      <c r="H3" s="194"/>
-      <c r="I3" s="194"/>
-      <c r="J3" s="194"/>
-      <c r="K3" s="194"/>
-      <c r="L3" s="194"/>
-      <c r="M3" s="194"/>
-      <c r="N3" s="194"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
+      <c r="H3" s="195"/>
+      <c r="I3" s="195"/>
+      <c r="J3" s="195"/>
+      <c r="K3" s="195"/>
+      <c r="L3" s="195"/>
+      <c r="M3" s="195"/>
+      <c r="N3" s="195"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -11063,25 +10985,25 @@
       <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="208" t="s">
+      <c r="E4" s="209" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="206" t="s">
+      <c r="F4" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="206"/>
-      <c r="H4" s="206" t="s">
+      <c r="G4" s="207"/>
+      <c r="H4" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="206"/>
-      <c r="J4" s="206" t="s">
+      <c r="I4" s="207"/>
+      <c r="J4" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="206"/>
-      <c r="L4" s="206" t="s">
+      <c r="K4" s="207"/>
+      <c r="L4" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="206"/>
+      <c r="M4" s="207"/>
       <c r="N4" s="120"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -11094,23 +11016,23 @@
       <c r="C5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="208"/>
-      <c r="F5" s="206" t="s">
+      <c r="E5" s="209"/>
+      <c r="F5" s="207" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="206"/>
-      <c r="H5" s="206" t="s">
+      <c r="G5" s="207"/>
+      <c r="H5" s="207" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="206"/>
-      <c r="J5" s="206" t="s">
+      <c r="I5" s="207"/>
+      <c r="J5" s="207" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="206"/>
-      <c r="L5" s="206" t="s">
+      <c r="K5" s="207"/>
+      <c r="L5" s="207" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="206"/>
+      <c r="M5" s="207"/>
       <c r="N5" s="27" t="s">
         <v>187</v>
       </c>
@@ -11126,7 +11048,7 @@
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="208"/>
+      <c r="E6" s="209"/>
       <c r="F6" s="116">
         <f>B6*G6</f>
         <v>9.509500000000001</v>
@@ -11558,11 +11480,11 @@
       <c r="N15" s="53"/>
     </row>
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="207" t="s">
+      <c r="A16" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="207"/>
-      <c r="C16" s="207"/>
+      <c r="B16" s="208"/>
+      <c r="C16" s="208"/>
       <c r="E16" s="27" t="s">
         <v>188</v>
       </c>
